--- a/ex_03/scripts/Jacobi.xlsx
+++ b/ex_03/scripts/Jacobi.xlsx
@@ -2330,7 +2330,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2349,12 +2349,6 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
     </row>
     <row r="2" ht="14.25">
       <c r="A2">
@@ -2365,17 +2359,14 @@
         <v>512</v>
       </c>
       <c r="C2">
-        <v>31.266141999999999</v>
+        <v>477.00338299999999</v>
       </c>
       <c r="D2">
-        <v>29.156341000000001</v>
+        <v>229.775914</v>
       </c>
       <c r="E2">
-        <v>30.723811000000001</v>
-      </c>
-      <c r="G2"/>
-      <c r="I2"/>
-      <c r="K2"/>
+        <v>363.370856</v>
+      </c>
     </row>
     <row r="3" ht="14.25">
       <c r="A3">
@@ -2386,17 +2377,14 @@
         <v>648</v>
       </c>
       <c r="C3">
-        <v>41.505144000000001</v>
+        <v>489.74154399999998</v>
       </c>
       <c r="D3">
-        <v>37.727808000000003</v>
+        <v>227.69118700000001</v>
       </c>
       <c r="E3">
-        <v>40.65052</v>
-      </c>
-      <c r="G3"/>
-      <c r="I3"/>
-      <c r="K3"/>
+        <v>381.209835</v>
+      </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4">
@@ -2407,17 +2395,14 @@
         <v>968</v>
       </c>
       <c r="C4">
-        <v>64.771221999999995</v>
+        <v>505.05123700000001</v>
       </c>
       <c r="D4">
-        <v>56.81127</v>
+        <v>240.62138300000001</v>
       </c>
       <c r="E4">
-        <v>63.433995000000003</v>
-      </c>
-      <c r="G4"/>
-      <c r="I4"/>
-      <c r="K4"/>
+        <v>422.18161700000002</v>
+      </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5">
@@ -2428,17 +2413,14 @@
         <v>1568</v>
       </c>
       <c r="C5">
-        <v>104.279394</v>
+        <v>503.998558</v>
       </c>
       <c r="D5">
-        <v>87.731187000000006</v>
+        <v>260.84746100000001</v>
       </c>
       <c r="E5">
-        <v>102.491349</v>
-      </c>
-      <c r="G5"/>
-      <c r="I5"/>
-      <c r="K5"/>
+        <v>456.86924900000002</v>
+      </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6">
@@ -2449,17 +2431,14 @@
         <v>2312</v>
       </c>
       <c r="C6">
-        <v>146.37685400000001</v>
+        <v>515.54352300000005</v>
       </c>
       <c r="D6">
-        <v>114.772543</v>
+        <v>257.42609499999998</v>
       </c>
       <c r="E6">
-        <v>142.70301000000001</v>
-      </c>
-      <c r="G6"/>
-      <c r="I6"/>
-      <c r="K6"/>
+        <v>464.37258500000002</v>
+      </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7">
@@ -2470,17 +2449,14 @@
         <v>3200</v>
       </c>
       <c r="C7">
-        <v>188.47886600000001</v>
+        <v>522.454973</v>
       </c>
       <c r="D7">
-        <v>141.28376299999999</v>
+        <v>268.46939600000002</v>
       </c>
       <c r="E7">
-        <v>184.880695</v>
-      </c>
-      <c r="G7"/>
-      <c r="I7"/>
-      <c r="K7"/>
+        <v>489.80123099999997</v>
+      </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8">
@@ -2491,17 +2467,14 @@
         <v>5000</v>
       </c>
       <c r="C8">
-        <v>252.04335599999999</v>
+        <v>529.31953699999997</v>
       </c>
       <c r="D8">
-        <v>171.39779200000001</v>
+        <v>266.12965600000001</v>
       </c>
       <c r="E8">
-        <v>242.61525399999999</v>
-      </c>
-      <c r="G8"/>
-      <c r="I8"/>
-      <c r="K8"/>
+        <v>487.21328</v>
+      </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9">
@@ -2512,17 +2485,14 @@
         <v>7200</v>
       </c>
       <c r="C9">
-        <v>304.52142300000003</v>
+        <v>533.39379399999996</v>
       </c>
       <c r="D9">
-        <v>197.98104000000001</v>
+        <v>274.53410200000002</v>
       </c>
       <c r="E9">
-        <v>293.686892</v>
-      </c>
-      <c r="G9"/>
-      <c r="I9"/>
-      <c r="K9"/>
+        <v>500.47185899999999</v>
+      </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10">
@@ -2533,17 +2503,14 @@
         <v>10368</v>
       </c>
       <c r="C10">
-        <v>351.88000499999998</v>
+        <v>536.25492799999995</v>
       </c>
       <c r="D10">
-        <v>218.28777299999999</v>
+        <v>277.06297899999998</v>
       </c>
       <c r="E10">
-        <v>343.788093</v>
-      </c>
-      <c r="G10"/>
-      <c r="I10"/>
-      <c r="K10"/>
+        <v>517.519949</v>
+      </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11">
@@ -2554,17 +2521,14 @@
         <v>15488</v>
       </c>
       <c r="C11">
-        <v>371.44203900000002</v>
+        <v>492.669982</v>
       </c>
       <c r="D11">
-        <v>235.07004699999999</v>
+        <v>278.45710300000002</v>
       </c>
       <c r="E11">
-        <v>387.80200500000001</v>
-      </c>
-      <c r="G11"/>
-      <c r="I11"/>
-      <c r="K11"/>
+        <v>521.818532</v>
+      </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12">
@@ -2575,17 +2539,14 @@
         <v>22472</v>
       </c>
       <c r="C12">
-        <v>408.55467499999997</v>
+        <v>501.35814199999999</v>
       </c>
       <c r="D12">
-        <v>243.923001</v>
+        <v>274.63597700000003</v>
       </c>
       <c r="E12">
-        <v>409.43760099999997</v>
-      </c>
-      <c r="G12"/>
-      <c r="I12"/>
-      <c r="K12"/>
+        <v>503.285459</v>
+      </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13">
@@ -2596,17 +2557,14 @@
         <v>32768</v>
       </c>
       <c r="C13">
-        <v>434.46960799999999</v>
+        <v>501.803946</v>
       </c>
       <c r="D13">
-        <v>257.77111400000001</v>
+        <v>280.545883</v>
       </c>
       <c r="E13">
-        <v>447.594134</v>
-      </c>
-      <c r="G13"/>
-      <c r="I13"/>
-      <c r="K13"/>
+        <v>521.89115600000002</v>
+      </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14">
@@ -2617,17 +2575,14 @@
         <v>48672</v>
       </c>
       <c r="C14">
-        <v>464.056668</v>
+        <v>515.93092000000001</v>
       </c>
       <c r="D14">
-        <v>264.25369000000001</v>
+        <v>280.41796900000003</v>
       </c>
       <c r="E14">
-        <v>472.26501200000001</v>
-      </c>
-      <c r="G14"/>
-      <c r="I14"/>
-      <c r="K14"/>
+        <v>524.53464799999995</v>
+      </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15">
@@ -2638,17 +2593,14 @@
         <v>70688</v>
       </c>
       <c r="C15">
-        <v>482.42541799999998</v>
+        <v>521.17180599999995</v>
       </c>
       <c r="D15">
-        <v>269.038995</v>
+        <v>280.64580000000001</v>
       </c>
       <c r="E15">
-        <v>487.276499</v>
-      </c>
-      <c r="G15"/>
-      <c r="I15"/>
-      <c r="K15"/>
+        <v>527.556557</v>
+      </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16">
@@ -2659,17 +2611,14 @@
         <v>103968</v>
       </c>
       <c r="C16">
-        <v>495.74538999999999</v>
+        <v>525.49717999999996</v>
       </c>
       <c r="D16">
-        <v>272.66361499999999</v>
+        <v>281.87024300000002</v>
       </c>
       <c r="E16">
-        <v>497.858316</v>
-      </c>
-      <c r="G16"/>
-      <c r="I16"/>
-      <c r="K16"/>
+        <v>530.241038</v>
+      </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17">
@@ -2680,17 +2629,14 @@
         <v>152352</v>
       </c>
       <c r="C17">
-        <v>430.24722600000001</v>
+        <v>457.50805100000002</v>
       </c>
       <c r="D17">
-        <v>272.41679699999997</v>
+        <v>280.25693799999999</v>
       </c>
       <c r="E17">
-        <v>497.24823800000001</v>
-      </c>
-      <c r="G17"/>
-      <c r="I17"/>
-      <c r="K17"/>
+        <v>523.78369999999995</v>
+      </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18">
@@ -2701,17 +2647,14 @@
         <v>223112</v>
       </c>
       <c r="C18">
-        <v>442.66938299999998</v>
+        <v>459.25334099999998</v>
       </c>
       <c r="D18">
-        <v>275.37886900000001</v>
+        <v>281.31406800000002</v>
       </c>
       <c r="E18">
-        <v>508.47377599999999</v>
-      </c>
-      <c r="G18"/>
-      <c r="I18"/>
-      <c r="K18"/>
+        <v>529.31577100000004</v>
+      </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19">
@@ -2722,17 +2665,14 @@
         <v>326432</v>
       </c>
       <c r="C19">
-        <v>444.35719799999998</v>
+        <v>436.93463000000003</v>
       </c>
       <c r="D19">
-        <v>276.54771299999999</v>
+        <v>281.41362900000001</v>
       </c>
       <c r="E19">
-        <v>512.74819400000001</v>
-      </c>
-      <c r="G19"/>
-      <c r="I19"/>
-      <c r="K19"/>
+        <v>529.31265900000005</v>
+      </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20">
@@ -2743,17 +2683,14 @@
         <v>476288</v>
       </c>
       <c r="C20">
-        <v>450.687095</v>
+        <v>463.14199500000001</v>
       </c>
       <c r="D20">
-        <v>279.03792199999998</v>
+        <v>282.48126200000002</v>
       </c>
       <c r="E20">
-        <v>522.61687900000004</v>
-      </c>
-      <c r="G20"/>
-      <c r="I20"/>
-      <c r="K20"/>
+        <v>531.80894999999998</v>
+      </c>
     </row>
     <row r="21" ht="14.25">
       <c r="A21">
@@ -2764,17 +2701,14 @@
         <v>700928</v>
       </c>
       <c r="C21">
-        <v>446.87505900000002</v>
+        <v>464.65295700000001</v>
       </c>
       <c r="D21">
-        <v>279.752475</v>
+        <v>281.46252299999998</v>
       </c>
       <c r="E21">
-        <v>528.99499500000002</v>
-      </c>
-      <c r="G21"/>
-      <c r="I21"/>
-      <c r="K21"/>
+        <v>537.64163599999995</v>
+      </c>
     </row>
     <row r="22" ht="14.25">
       <c r="A22">
@@ -2785,17 +2719,14 @@
         <v>1025312</v>
       </c>
       <c r="C22">
-        <v>454.676401</v>
+        <v>465.63022999999998</v>
       </c>
       <c r="D22">
-        <v>280.15740699999998</v>
+        <v>281.56253700000002</v>
       </c>
       <c r="E22">
-        <v>528.63598300000001</v>
-      </c>
-      <c r="G22"/>
-      <c r="I22"/>
-      <c r="K22"/>
+        <v>535.39661799999999</v>
+      </c>
     </row>
     <row r="23" ht="14.25">
       <c r="A23">
@@ -2806,17 +2737,14 @@
         <v>1492992</v>
       </c>
       <c r="C23">
-        <v>456.630244</v>
+        <v>466.53061200000002</v>
       </c>
       <c r="D23">
-        <v>281.22544299999998</v>
+        <v>282.42945500000002</v>
       </c>
       <c r="E23">
-        <v>533.30421999999999</v>
-      </c>
-      <c r="G23"/>
-      <c r="I23"/>
-      <c r="K23"/>
+        <v>537.47406100000001</v>
+      </c>
     </row>
     <row r="24" ht="14.25">
       <c r="A24">
@@ -2827,17 +2755,14 @@
         <v>2188232</v>
       </c>
       <c r="C24">
-        <v>457.42714999999998</v>
+        <v>467.15184900000003</v>
       </c>
       <c r="D24">
-        <v>281.96346399999999</v>
+        <v>282.49671899999998</v>
       </c>
       <c r="E24">
-        <v>535.63520900000003</v>
-      </c>
-      <c r="G24"/>
-      <c r="I24"/>
-      <c r="K24"/>
+        <v>539.715913</v>
+      </c>
     </row>
     <row r="25" ht="14.25">
       <c r="A25">
@@ -2848,17 +2773,14 @@
         <v>3205512</v>
       </c>
       <c r="C25">
-        <v>459.87224099999997</v>
+        <v>468.20012700000001</v>
       </c>
       <c r="D25">
-        <v>282.62504999999999</v>
+        <v>281.16252100000003</v>
       </c>
       <c r="E25">
-        <v>536.29155100000003</v>
-      </c>
-      <c r="G25"/>
-      <c r="I25"/>
-      <c r="K25"/>
+        <v>538.20171800000003</v>
+      </c>
     </row>
     <row r="26" ht="14.25">
       <c r="A26">
@@ -2869,17 +2791,14 @@
         <v>4681800</v>
       </c>
       <c r="C26">
-        <v>463.96293100000003</v>
+        <v>464.96075000000002</v>
       </c>
       <c r="D26">
-        <v>283.26708100000002</v>
+        <v>283.64221600000002</v>
       </c>
       <c r="E26">
-        <v>538.122254</v>
-      </c>
-      <c r="G26"/>
-      <c r="I26"/>
-      <c r="K26"/>
+        <v>539.884546</v>
+      </c>
     </row>
     <row r="27" ht="14.25">
       <c r="A27">
@@ -2890,17 +2809,14 @@
         <v>6845000</v>
       </c>
       <c r="C27">
-        <v>464.68455599999999</v>
+        <v>468.71607499999999</v>
       </c>
       <c r="D27">
-        <v>283.764634</v>
+        <v>284.21188100000001</v>
       </c>
       <c r="E27">
-        <v>540.00916299999994</v>
-      </c>
-      <c r="G27"/>
-      <c r="I27"/>
-      <c r="K27"/>
+        <v>540.646164</v>
+      </c>
     </row>
     <row r="28" ht="14.25">
       <c r="A28">
@@ -2911,17 +2827,14 @@
         <v>10017288</v>
       </c>
       <c r="C28">
-        <v>462.33331600000002</v>
+        <v>463.58659699999998</v>
       </c>
       <c r="D28">
-        <v>283.92195900000002</v>
+        <v>283.19735400000002</v>
       </c>
       <c r="E28">
-        <v>540.653504</v>
-      </c>
-      <c r="G28"/>
-      <c r="I28"/>
-      <c r="K28"/>
+        <v>539.64373999999998</v>
+      </c>
     </row>
     <row r="29" ht="14.25">
       <c r="A29">
@@ -2932,17 +2845,14 @@
         <v>14666528</v>
       </c>
       <c r="C29">
-        <v>456.14648899999997</v>
+        <v>456.983587</v>
       </c>
       <c r="D29">
-        <v>282.12787200000002</v>
+        <v>280.174103</v>
       </c>
       <c r="E29">
-        <v>526.93032400000004</v>
-      </c>
-      <c r="G29"/>
-      <c r="I29"/>
-      <c r="K29"/>
+        <v>526.66202699999997</v>
+      </c>
     </row>
     <row r="30" ht="14.25">
       <c r="A30">
@@ -2953,17 +2863,14 @@
         <v>21438152</v>
       </c>
       <c r="C30">
-        <v>451.443916</v>
+        <v>449.89911999999998</v>
       </c>
       <c r="D30">
-        <v>283.12654700000002</v>
+        <v>281.054193</v>
       </c>
       <c r="E30">
-        <v>519.38055299999996</v>
-      </c>
-      <c r="G30"/>
-      <c r="I30"/>
-      <c r="K30"/>
+        <v>513.82890799999996</v>
+      </c>
     </row>
     <row r="31" ht="14.25">
       <c r="A31">
@@ -2974,17 +2881,14 @@
         <v>31363200</v>
       </c>
       <c r="C31">
-        <v>451.80636099999998</v>
+        <v>452.831749</v>
       </c>
       <c r="D31">
-        <v>281.82755600000002</v>
+        <v>280.37263300000001</v>
       </c>
       <c r="E31">
-        <v>508.023279</v>
-      </c>
-      <c r="G31"/>
-      <c r="I31"/>
-      <c r="K31"/>
+        <v>506.013688</v>
+      </c>
     </row>
     <row r="32" ht="14.25">
       <c r="A32">
@@ -2995,17 +2899,14 @@
         <v>45849888</v>
       </c>
       <c r="C32">
-        <v>448.755492</v>
+        <v>448.72029199999997</v>
       </c>
       <c r="D32">
-        <v>281.36632500000002</v>
+        <v>280.00983100000002</v>
       </c>
       <c r="E32">
-        <v>509.58154300000001</v>
-      </c>
-      <c r="G32"/>
-      <c r="I32"/>
-      <c r="K32"/>
+        <v>507.55996399999998</v>
+      </c>
     </row>
     <row r="33" ht="14.25">
       <c r="A33">
@@ -3016,17 +2917,281 @@
         <v>67094528</v>
       </c>
       <c r="C33">
-        <v>451.18319000000002</v>
+        <v>451.070044</v>
       </c>
       <c r="D33">
-        <v>281.68836199999998</v>
+        <v>280.40084899999999</v>
       </c>
       <c r="E33">
-        <v>505.17877399999998</v>
-      </c>
-      <c r="G33"/>
-      <c r="I33"/>
-      <c r="K33"/>
+        <v>507.80645500000003</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="A36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="I36"/>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="A37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="I37"/>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="I38"/>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="A39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="I39"/>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="A40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="I40"/>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="A41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="I41"/>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="A42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="I42"/>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="A43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="I43"/>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="A44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="I44"/>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="A45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="I45"/>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="A46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="I46"/>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="A47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="I47"/>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="A48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="I48"/>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="A49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="I49"/>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="A50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="I50"/>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="A51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="I51"/>
+    </row>
+    <row r="52" ht="14.25">
+      <c r="A52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="I52"/>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="A53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="I53"/>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="A54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="I54"/>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="A55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="I55"/>
+    </row>
+    <row r="56" ht="14.25">
+      <c r="A56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="I56"/>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="A57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="I57"/>
+    </row>
+    <row r="58" ht="14.25">
+      <c r="A58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="I58"/>
+    </row>
+    <row r="59" ht="14.25">
+      <c r="A59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="I59"/>
+    </row>
+    <row r="60" ht="14.25">
+      <c r="A60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="I60"/>
+    </row>
+    <row r="61" ht="14.25">
+      <c r="A61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="I61"/>
+    </row>
+    <row r="62" ht="14.25">
+      <c r="A62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="I62"/>
+    </row>
+    <row r="63" ht="14.25">
+      <c r="A63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="I63"/>
+    </row>
+    <row r="64" ht="14.25">
+      <c r="A64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="I64"/>
+    </row>
+    <row r="65" ht="14.25">
+      <c r="A65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="I65"/>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="A66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="I66"/>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="A67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="I67"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
